--- a/Project 2: Quantitative Momentum Investing Strategy/momentum_strategy.xlsx
+++ b/Project 2: Quantitative Momentum Investing Strategy/momentum_strategy.xlsx
@@ -52,154 +52,154 @@
     <t>HQM Score</t>
   </si>
   <si>
-    <t>CARR</t>
-  </si>
-  <si>
-    <t>MPC</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ACGL</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>ADSK</t>
+  </si>
+  <si>
+    <t>AEE</t>
+  </si>
+  <si>
+    <t>AEP</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>AIZ</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>AKAM</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>ALGN</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>ALLE</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>AMCR</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>AMZN</t>
   </si>
   <si>
     <t>ANET</t>
   </si>
   <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>PHM</t>
-  </si>
-  <si>
-    <t>LRCX</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>CEG</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>BKR</t>
-  </si>
-  <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
-    <t>PNR</t>
-  </si>
-  <si>
-    <t>KLAC</t>
+    <t>ANSS</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>APTV</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>AVB</t>
   </si>
   <si>
     <t>AVGO</t>
   </si>
   <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>TRGP</t>
-  </si>
-  <si>
-    <t>RCL</t>
-  </si>
-  <si>
-    <t>ODFL</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>HES</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>DVA</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>DHI</t>
-  </si>
-  <si>
-    <t>APA</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>FANG</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>NXPI</t>
-  </si>
-  <si>
-    <t>FTV</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>CZR</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>TDG</t>
-  </si>
-  <si>
-    <t>PKG</t>
+    <t>AVY</t>
+  </si>
+  <si>
+    <t>AWK</t>
   </si>
   <si>
     <t>Price</t>
@@ -650,37 +650,28 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>57.63</v>
+        <v>126.3</v>
       </c>
       <c r="C2" s="3">
-        <v>3470</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.38729703</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.9184890656063619</v>
+        <v>1583</v>
       </c>
       <c r="F2" s="4">
-        <v>25.92329538942647</v>
+        <v>-17.0388869583764</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9264413518886679</v>
+        <v>0.1153081510934394</v>
       </c>
       <c r="H2" s="4">
-        <v>40.75902221809778</v>
+        <v>-4.643257106972697</v>
       </c>
       <c r="I2" s="4">
-        <v>0.9781312127236581</v>
+        <v>0.2127236580516899</v>
       </c>
       <c r="J2" s="4">
-        <v>17.06945266610841</v>
+        <v>6.645277992318039</v>
       </c>
       <c r="K2" s="4">
-        <v>0.9622266401590458</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.9463220675944335</v>
+        <v>0.7514910536779325</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -688,37 +679,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>139.39</v>
+        <v>15.84</v>
       </c>
       <c r="C3" s="3">
-        <v>1434</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.5098648</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.9622266401590458</v>
+        <v>12626</v>
       </c>
       <c r="F3" s="4">
-        <v>21.26487351205143</v>
+        <v>-6.382978243712937</v>
       </c>
       <c r="G3" s="4">
-        <v>0.8906560636182903</v>
+        <v>0.3180914512922465</v>
       </c>
       <c r="H3" s="4">
-        <v>33.58217319807336</v>
+        <v>10.30641038506195</v>
       </c>
       <c r="I3" s="4">
-        <v>0.9463220675944335</v>
+        <v>0.6381709741550696</v>
       </c>
       <c r="J3" s="4">
-        <v>19.94664872884675</v>
+        <v>-11.40939096157791</v>
       </c>
       <c r="K3" s="4">
-        <v>0.9821073558648112</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.9453280318091453</v>
+        <v>0.04970178926441352</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -726,37 +708,28 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>180.25</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>1109</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.40322077</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.9264413518886679</v>
+        <v>2816</v>
       </c>
       <c r="F4" s="4">
-        <v>38.9852699566697</v>
+        <v>-53.18124679006564</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9801192842942347</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="H4" s="4">
-        <v>33.18309803259253</v>
+        <v>-43.53081341055231</v>
       </c>
       <c r="I4" s="4">
-        <v>0.9423459244532804</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="J4" s="4">
-        <v>12.88201920574024</v>
+        <v>1.500862014720718</v>
       </c>
       <c r="K4" s="4">
-        <v>0.9145129224652088</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.9408548707753479</v>
+        <v>0.4811133200795229</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -764,37 +737,28 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>451.67</v>
+        <v>181.99</v>
       </c>
       <c r="C5" s="3">
-        <v>442</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.3442519</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.9980119284294235</v>
+        <v>1098</v>
       </c>
       <c r="F5" s="4">
-        <v>114.2318183759122</v>
+        <v>19.94332736946937</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>0.8926441351888669</v>
       </c>
       <c r="H5" s="4">
-        <v>63.89114941773957</v>
+        <v>4.893374924013869</v>
       </c>
       <c r="I5" s="4">
-        <v>0.9940357852882704</v>
+        <v>0.4731610337972167</v>
       </c>
       <c r="J5" s="4">
-        <v>6.734881748625368</v>
+        <v>-5.119645581784597</v>
       </c>
       <c r="K5" s="4">
-        <v>0.7435387673956262</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.9338966202783301</v>
+        <v>0.1610337972166998</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -802,37 +766,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>102.725</v>
+        <v>147.73</v>
       </c>
       <c r="C6" s="3">
-        <v>1946</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.51855683</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.9662027833001988</v>
+        <v>1353</v>
       </c>
       <c r="F6" s="4">
-        <v>27.76740861261835</v>
+        <v>1.868701817155268</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9443339960238569</v>
+        <v>0.5526838966202784</v>
       </c>
       <c r="H6" s="4">
-        <v>31.98637550736012</v>
+        <v>0.1898940556744535</v>
       </c>
       <c r="I6" s="4">
-        <v>0.9363817097415508</v>
+        <v>0.3459244532803181</v>
       </c>
       <c r="J6" s="4">
-        <v>10.5164086571428</v>
+        <v>7.635698162141394</v>
       </c>
       <c r="K6" s="4">
-        <v>0.8707753479125249</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.9294234592445328</v>
+        <v>0.7833001988071571</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -840,37 +795,28 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>84.05</v>
+        <v>185.33</v>
       </c>
       <c r="C7" s="3">
-        <v>2379</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.9218972</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.992047713717694</v>
+        <v>1079</v>
       </c>
       <c r="F7" s="4">
-        <v>46.96198773636146</v>
+        <v>19.96245403671453</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9900596421471174</v>
+        <v>0.89662027833002</v>
       </c>
       <c r="H7" s="4">
-        <v>26.91310533154525</v>
+        <v>10.17775068894051</v>
       </c>
       <c r="I7" s="4">
-        <v>0.8946322067594434</v>
+        <v>0.6341948310139166</v>
       </c>
       <c r="J7" s="4">
-        <v>8.985995926307096</v>
+        <v>-3.5693847355265</v>
       </c>
       <c r="K7" s="4">
-        <v>0.8170974155069582</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.9234592445328033</v>
+        <v>0.2226640159045726</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -878,37 +824,28 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>695.1</v>
+        <v>107.65</v>
       </c>
       <c r="C8" s="3">
-        <v>287</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.33346152</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.8886679920477139</v>
+        <v>1857</v>
       </c>
       <c r="F8" s="4">
-        <v>34.28269442690851</v>
+        <v>-2.79909568769399</v>
       </c>
       <c r="G8" s="4">
-        <v>0.9681908548707754</v>
+        <v>0.4353876739562624</v>
       </c>
       <c r="H8" s="4">
-        <v>36.07215271695819</v>
+        <v>-2.930568039028927</v>
       </c>
       <c r="I8" s="4">
-        <v>0.9642147117296223</v>
+        <v>0.2664015904572565</v>
       </c>
       <c r="J8" s="4">
-        <v>10.58257607425436</v>
+        <v>0.4197804015367537</v>
       </c>
       <c r="K8" s="4">
-        <v>0.8727634194831014</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.9234592445328033</v>
+        <v>0.4353876739562624</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -916,37 +853,28 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>314.3429</v>
+        <v>76.72</v>
       </c>
       <c r="C9" s="3">
-        <v>636</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.8741548</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.9880715705765408</v>
+        <v>2606</v>
       </c>
       <c r="F9" s="4">
-        <v>68.94705989062484</v>
+        <v>23.42342569020645</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9980119284294235</v>
+        <v>0.9184890656063619</v>
       </c>
       <c r="H9" s="4">
-        <v>34.61069277005106</v>
+        <v>0.7617570734227525</v>
       </c>
       <c r="I9" s="4">
-        <v>0.9562624254473161</v>
+        <v>0.3618290258449304</v>
       </c>
       <c r="J9" s="4">
-        <v>6.786022188043106</v>
+        <v>3.858126936719199</v>
       </c>
       <c r="K9" s="4">
-        <v>0.7475149105367794</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.9224652087475149</v>
+        <v>0.6043737574552684</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -954,37 +882,28 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>218.31</v>
+        <v>312</v>
       </c>
       <c r="C10" s="3">
-        <v>916</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.4604776</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.9483101391650101</v>
+        <v>641</v>
       </c>
       <c r="F10" s="4">
-        <v>35.8257182437092</v>
+        <v>9.673786540662945</v>
       </c>
       <c r="G10" s="4">
-        <v>0.9701789264413521</v>
+        <v>0.7614314115308152</v>
       </c>
       <c r="H10" s="4">
-        <v>30.27210596326546</v>
+        <v>17.81587167544288</v>
       </c>
       <c r="I10" s="4">
-        <v>0.9125248508946322</v>
+        <v>0.8310139165009942</v>
       </c>
       <c r="J10" s="4">
-        <v>9.758674840488496</v>
+        <v>1.308568614905068</v>
       </c>
       <c r="K10" s="4">
-        <v>0.8469184890656064</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.9194831013916502</v>
+        <v>0.4711729622266402</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -992,37 +911,28 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>102.955</v>
+        <v>526.88</v>
       </c>
       <c r="C11" s="3">
-        <v>1942</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.36123824</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.904572564612326</v>
+        <v>379</v>
       </c>
       <c r="F11" s="4">
-        <v>24.53856329692069</v>
+        <v>40.41520919338456</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9184890656063619</v>
+        <v>0.9880715705765408</v>
       </c>
       <c r="H11" s="4">
-        <v>31.4692897423597</v>
+        <v>53.13608342192827</v>
       </c>
       <c r="I11" s="4">
-        <v>0.9264413518886679</v>
+        <v>0.9940357852882704</v>
       </c>
       <c r="J11" s="4">
-        <v>11.73757598550763</v>
+        <v>9.47245850287279</v>
       </c>
       <c r="K11" s="4">
-        <v>0.8986083499005965</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.9120278330019881</v>
+        <v>0.8409542743538768</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1030,37 +940,28 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>3116.11</v>
+        <v>188.35</v>
       </c>
       <c r="C12" s="3">
-        <v>64</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.4753009</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.9502982107355865</v>
+        <v>1061</v>
       </c>
       <c r="F12" s="4">
-        <v>26.16086030178172</v>
+        <v>6.08279519353739</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9343936381709742</v>
+        <v>0.6679920477137178</v>
       </c>
       <c r="H12" s="4">
-        <v>19.6860474504331</v>
+        <v>2.075656699746947</v>
       </c>
       <c r="I12" s="4">
-        <v>0.7892644135188867</v>
+        <v>0.3817097415506959</v>
       </c>
       <c r="J12" s="4">
-        <v>16.53366145930722</v>
+        <v>1.160107220466429</v>
       </c>
       <c r="K12" s="4">
-        <v>0.9542743538767396</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.9070576540755467</v>
+        <v>0.4612326043737575</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1068,37 +969,28 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>35.75</v>
+        <v>85.55</v>
       </c>
       <c r="C13" s="3">
-        <v>5594</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.48171234</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.9562624254473161</v>
+        <v>2337</v>
       </c>
       <c r="F13" s="4">
-        <v>13.68997198465662</v>
+        <v>3.621615287769385</v>
       </c>
       <c r="G13" s="4">
-        <v>0.8091451292246522</v>
+        <v>0.5964214711729623</v>
       </c>
       <c r="H13" s="4">
-        <v>32.23455441828438</v>
+        <v>13.46154021282772</v>
       </c>
       <c r="I13" s="4">
-        <v>0.9383697813121273</v>
+        <v>0.7157057654075547</v>
       </c>
       <c r="J13" s="4">
-        <v>13.34812606933073</v>
+        <v>11.04621240277696</v>
       </c>
       <c r="K13" s="4">
-        <v>0.9224652087475149</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.9065606361829026</v>
+        <v>0.882703777335984</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1106,37 +998,28 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>58.415</v>
+        <v>245.76</v>
       </c>
       <c r="C14" s="3">
-        <v>3423</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.67282164</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.9801192842942347</v>
+        <v>813</v>
       </c>
       <c r="F14" s="4">
-        <v>11.15193507678072</v>
+        <v>9.974490161710252</v>
       </c>
       <c r="G14" s="4">
-        <v>0.7415506958250497</v>
+        <v>0.7713717693836979</v>
       </c>
       <c r="H14" s="4">
-        <v>30.31436506610034</v>
+        <v>14.69640621947859</v>
       </c>
       <c r="I14" s="4">
-        <v>0.9145129224652088</v>
+        <v>0.7554671968190856</v>
       </c>
       <c r="J14" s="4">
-        <v>18.48884750410854</v>
+        <v>10.87751016208531</v>
       </c>
       <c r="K14" s="4">
-        <v>0.9741550695825051</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.9025844930417496</v>
+        <v>0.8807157057654077</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1144,37 +1027,28 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>528.17</v>
+        <v>201.57</v>
       </c>
       <c r="C15" s="3">
-        <v>378</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.2084074</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.7892644135188867</v>
+        <v>992</v>
       </c>
       <c r="F15" s="4">
-        <v>40.75899247019467</v>
+        <v>-7.680676602980055</v>
       </c>
       <c r="G15" s="4">
-        <v>0.9860834990059643</v>
+        <v>0.2842942345924453</v>
       </c>
       <c r="H15" s="4">
-        <v>57.52912201097789</v>
+        <v>4.989844031957064</v>
       </c>
       <c r="I15" s="4">
-        <v>0.9900596421471174</v>
+        <v>0.4751491053677933</v>
       </c>
       <c r="J15" s="4">
-        <v>8.572429235746563</v>
+        <v>0.2586442499715202</v>
       </c>
       <c r="K15" s="4">
-        <v>0.8071570576540756</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.893141153081511</v>
+        <v>0.4234592445328032</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1182,1367 +1056,1043 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>417.8425</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>478</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.42811286</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.9383697813121273</v>
+        <v>2457</v>
       </c>
       <c r="F16" s="4">
-        <v>20.72981249393237</v>
+        <v>-5.238649499493076</v>
       </c>
       <c r="G16" s="4">
-        <v>0.882703777335984</v>
+        <v>0.363817097415507</v>
       </c>
       <c r="H16" s="4">
-        <v>30.23764708478582</v>
+        <v>-8.682968270996369</v>
       </c>
       <c r="I16" s="4">
-        <v>0.9105367793240557</v>
+        <v>0.1153081510934394</v>
       </c>
       <c r="J16" s="4">
-        <v>9.140000553198352</v>
+        <v>-2.25744149972938</v>
       </c>
       <c r="K16" s="4">
-        <v>0.8250497017892644</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.8891650099403579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2862823061630219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>112.83</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C17" s="3">
-        <v>1772</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.3181709</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.878727634194831</v>
+        <v>2461</v>
       </c>
       <c r="F17" s="4">
-        <v>17.4828691301479</v>
+        <v>-12.17297528241132</v>
       </c>
       <c r="G17" s="4">
-        <v>0.8508946322067595</v>
+        <v>0.1769383697813121</v>
       </c>
       <c r="H17" s="4">
-        <v>23.57714623300735</v>
+        <v>-11.82982591500156</v>
       </c>
       <c r="I17" s="4">
-        <v>0.8588469184890657</v>
+        <v>0.06958250497017893</v>
       </c>
       <c r="J17" s="4">
-        <v>17.37231359074333</v>
+        <v>-4.793160529145395</v>
       </c>
       <c r="K17" s="4">
-        <v>0.9642147117296223</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.8881709741550696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1650099403578529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>69.52589999999999</v>
+        <v>19.64</v>
       </c>
       <c r="C18" s="3">
-        <v>2876</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.4124236</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.9284294234592445</v>
+        <v>10183</v>
       </c>
       <c r="F18" s="4">
-        <v>20.29724692745572</v>
+        <v>-25.06676812024928</v>
       </c>
       <c r="G18" s="4">
-        <v>0.878727634194831</v>
+        <v>0.05566600397614314</v>
       </c>
       <c r="H18" s="4">
-        <v>22.12407383247964</v>
+        <v>-9.53477559704144</v>
       </c>
       <c r="I18" s="4">
-        <v>0.8290258449304175</v>
+        <v>0.09741550695825051</v>
       </c>
       <c r="J18" s="4">
-        <v>10.06195809314004</v>
+        <v>-6.919435855098276</v>
       </c>
       <c r="K18" s="4">
-        <v>0.8528827037773361</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.8722664015904573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1013916500994036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>501.25</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="C19" s="3">
-        <v>399</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.2693435</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.848906560636183</v>
+        <v>2602</v>
       </c>
       <c r="F19" s="4">
-        <v>24.40300612927719</v>
+        <v>10.44839961447326</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9165009940357853</v>
+        <v>0.7813121272365805</v>
       </c>
       <c r="H19" s="4">
-        <v>34.75376591544301</v>
+        <v>13.61620219925984</v>
       </c>
       <c r="I19" s="4">
-        <v>0.9602385685884692</v>
+        <v>0.7256461232604374</v>
       </c>
       <c r="J19" s="4">
-        <v>7.125301035873203</v>
+        <v>10.35324403742654</v>
       </c>
       <c r="K19" s="4">
-        <v>0.7614314115308152</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.8717693836978132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.8667992047713718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>881.855</v>
+        <v>60.69</v>
       </c>
       <c r="C20" s="3">
-        <v>226</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.6048528</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.9761431411530817</v>
+        <v>3295</v>
       </c>
       <c r="F20" s="4">
-        <v>48.50059571626967</v>
+        <v>1.217477574020461</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9940357852882704</v>
+        <v>0.5387673956262425</v>
       </c>
       <c r="H20" s="4">
-        <v>45.29847693315811</v>
+        <v>12.91162535201672</v>
       </c>
       <c r="I20" s="4">
-        <v>0.9840954274353878</v>
+        <v>0.7017892644135189</v>
       </c>
       <c r="J20" s="4">
-        <v>2.319981836612511</v>
+        <v>5.364583740355803</v>
       </c>
       <c r="K20" s="4">
-        <v>0.5168986083499006</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0.8677932405566602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6978131212723659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>39.79</v>
+        <v>141.78</v>
       </c>
       <c r="C21" s="3">
-        <v>5026</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.42821157</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.9403578528827039</v>
+        <v>1410</v>
       </c>
       <c r="F21" s="4">
-        <v>4.850498191929494</v>
+        <v>6.497403725102031</v>
       </c>
       <c r="G21" s="4">
-        <v>0.5725646123260438</v>
+        <v>0.679920477137177</v>
       </c>
       <c r="H21" s="4">
-        <v>37.82001416027377</v>
+        <v>7.694648957430005</v>
       </c>
       <c r="I21" s="4">
-        <v>0.9741550695825051</v>
+        <v>0.5526838966202784</v>
       </c>
       <c r="J21" s="4">
-        <v>19.8493975938223</v>
+        <v>13.72423266355159</v>
       </c>
       <c r="K21" s="4">
-        <v>0.9801192842942347</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.8667992047713718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9244532803180916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>115.24</v>
+        <v>220.81</v>
       </c>
       <c r="C22" s="3">
-        <v>1735</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.1823256</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.749502982107356</v>
+        <v>905</v>
       </c>
       <c r="F22" s="4">
-        <v>17.27137332254568</v>
+        <v>13.49781243634818</v>
       </c>
       <c r="G22" s="4">
-        <v>0.8469184890656064</v>
+        <v>0.8330019880715706</v>
       </c>
       <c r="H22" s="4">
-        <v>29.88100096356957</v>
+        <v>2.549688857342657</v>
       </c>
       <c r="I22" s="4">
-        <v>0.9065606361829026</v>
+        <v>0.3976143141153081</v>
       </c>
       <c r="J22" s="4">
-        <v>17.04245270701319</v>
+        <v>2.075624113513198</v>
       </c>
       <c r="K22" s="4">
-        <v>0.9602385685884692</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0.8658051689860835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5069582504970179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>84.77</v>
+        <v>92.63</v>
       </c>
       <c r="C23" s="3">
-        <v>2359</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.28389835</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.8588469184890657</v>
+        <v>2159</v>
       </c>
       <c r="F23" s="4">
-        <v>18.40162427261574</v>
+        <v>5.874956583782204</v>
       </c>
       <c r="G23" s="4">
-        <v>0.8588469184890657</v>
+        <v>0.6620278330019882</v>
       </c>
       <c r="H23" s="4">
-        <v>22.99843935180296</v>
+        <v>16.73597861961896</v>
       </c>
       <c r="I23" s="4">
-        <v>0.84493041749503</v>
+        <v>0.7992047713717695</v>
       </c>
       <c r="J23" s="4">
-        <v>11.57543470692323</v>
+        <v>3.497203635103876</v>
       </c>
       <c r="K23" s="4">
-        <v>0.8946322067594434</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.8643141153081512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5904572564612327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>104.69</v>
+        <v>200.09</v>
       </c>
       <c r="C24" s="3">
-        <v>1910</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1.6397781</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="F24" s="4">
-        <v>51.52700534157029</v>
+        <v>-27.71576239924767</v>
       </c>
       <c r="G24" s="4">
-        <v>0.996023856858847</v>
+        <v>0.04572564612326044</v>
       </c>
       <c r="H24" s="4">
-        <v>45.64552927334472</v>
+        <v>7.644712223908521</v>
       </c>
       <c r="I24" s="4">
-        <v>0.9860834990059643</v>
+        <v>0.5467196819085488</v>
       </c>
       <c r="J24" s="4">
-        <v>1.404498845060104</v>
+        <v>-12.07540980880551</v>
       </c>
       <c r="K24" s="4">
-        <v>0.4691848906560637</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.8628230616302187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.02982107355864811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>409.06</v>
+        <v>361.44</v>
       </c>
       <c r="C25" s="3">
-        <v>488</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.362404</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.9065606361829026</v>
+        <v>553</v>
       </c>
       <c r="F25" s="4">
-        <v>10.95638232644976</v>
+        <v>5.54225645620207</v>
       </c>
       <c r="G25" s="4">
-        <v>0.7375745526838966</v>
+        <v>0.6461232604373758</v>
       </c>
       <c r="H25" s="4">
-        <v>31.17552610093</v>
+        <v>18.09063083353158</v>
       </c>
       <c r="I25" s="4">
-        <v>0.9224652087475149</v>
+        <v>0.8369781312127238</v>
       </c>
       <c r="J25" s="4">
-        <v>11.23922044366464</v>
+        <v>9.222769181452595</v>
       </c>
       <c r="K25" s="4">
-        <v>0.8846918489065607</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0.8628230616302187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.8330019880715706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>91.745</v>
+        <v>46.74</v>
       </c>
       <c r="C26" s="3">
-        <v>2179</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.13902342</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.6878727634194831</v>
+        <v>4278</v>
       </c>
       <c r="F26" s="4">
-        <v>29.5539722523193</v>
+        <v>-10.85256264274193</v>
       </c>
       <c r="G26" s="4">
-        <v>0.9502982107355865</v>
+        <v>0.2027833001988072</v>
       </c>
       <c r="H26" s="4">
-        <v>24.32596036709715</v>
+        <v>7.547175939002761</v>
       </c>
       <c r="I26" s="4">
-        <v>0.8707753479125249</v>
+        <v>0.5427435387673957</v>
       </c>
       <c r="J26" s="4">
-        <v>11.90385902266432</v>
+        <v>-11.46050223931903</v>
       </c>
       <c r="K26" s="4">
-        <v>0.900596421471173</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.8523856858846919</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.04572564612326044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>153.66</v>
+        <v>109.87</v>
       </c>
       <c r="C27" s="3">
-        <v>1301</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.47672272</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.9522862823061631</v>
+        <v>1820</v>
       </c>
       <c r="F27" s="4">
-        <v>12.64415027971824</v>
+        <v>-18.60275135260951</v>
       </c>
       <c r="G27" s="4">
-        <v>0.779324055666004</v>
+        <v>0.09542743538767397</v>
       </c>
       <c r="H27" s="4">
-        <v>17.72905509050346</v>
+        <v>-5.382362945374601</v>
       </c>
       <c r="I27" s="4">
-        <v>0.7375745526838966</v>
+        <v>0.1928429423459245</v>
       </c>
       <c r="J27" s="4">
-        <v>14.29634102326046</v>
+        <v>1.020596348427062</v>
       </c>
       <c r="K27" s="4">
-        <v>0.9304174950298212</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.8499005964214712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.4592445328031809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>135.485</v>
+        <v>111.91</v>
       </c>
       <c r="C28" s="3">
-        <v>1476</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.31919777</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.8846918489065607</v>
+        <v>1787</v>
       </c>
       <c r="F28" s="4">
-        <v>13.42070506569933</v>
+        <v>-7.412922049202177</v>
       </c>
       <c r="G28" s="4">
-        <v>0.8071570576540756</v>
+        <v>0.2902584493041749</v>
       </c>
       <c r="H28" s="4">
-        <v>24.11019586558634</v>
+        <v>3.98624865828076</v>
       </c>
       <c r="I28" s="4">
-        <v>0.8667992047713718</v>
+        <v>0.4512922465208748</v>
       </c>
       <c r="J28" s="4">
-        <v>8.779604408399427</v>
+        <v>-3.041062694957077</v>
       </c>
       <c r="K28" s="4">
-        <v>0.8111332007952287</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0.8424453280318092</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.2485089463220676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>202.75</v>
+        <v>145.66</v>
       </c>
       <c r="C29" s="3">
-        <v>986</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.48520923</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.9582504970178927</v>
+        <v>1373</v>
       </c>
       <c r="F29" s="4">
-        <v>32.88029934164997</v>
+        <v>23.76582601791381</v>
       </c>
       <c r="G29" s="4">
-        <v>0.9622266401590458</v>
+        <v>0.9224652087475149</v>
       </c>
       <c r="H29" s="4">
-        <v>22.66904629821706</v>
+        <v>25.8401759499865</v>
       </c>
       <c r="I29" s="4">
-        <v>0.8369781312127238</v>
+        <v>0.9204771371769384</v>
       </c>
       <c r="J29" s="4">
-        <v>3.894443423629817</v>
+        <v>3.761218546547675</v>
       </c>
       <c r="K29" s="4">
-        <v>0.610337972166998</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0.841948310139165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.6003976143141153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>108.9106</v>
+        <v>9.85</v>
       </c>
       <c r="C30" s="3">
-        <v>1836</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.18534076</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.753479125248509</v>
+        <v>20304</v>
       </c>
       <c r="F30" s="4">
-        <v>29.69624920956925</v>
+        <v>-17.43503663452259</v>
       </c>
       <c r="G30" s="4">
-        <v>0.9522862823061631</v>
+        <v>0.1113320079522863</v>
       </c>
       <c r="H30" s="4">
-        <v>24.84806604338511</v>
+        <v>-5.831736658246799</v>
       </c>
       <c r="I30" s="4">
-        <v>0.878727634194831</v>
+        <v>0.1749502982107356</v>
       </c>
       <c r="J30" s="4">
-        <v>7.419096880212936</v>
+        <v>0.2034634579745898</v>
       </c>
       <c r="K30" s="4">
-        <v>0.779324055666004</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.8409542743538768</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0.4174950298210736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>848.75</v>
+        <v>115.82</v>
       </c>
       <c r="C31" s="3">
-        <v>235</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.772504</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.9840954274353878</v>
+        <v>1726</v>
       </c>
       <c r="F31" s="4">
-        <v>26.0301410075672</v>
+        <v>38.40822092786311</v>
       </c>
       <c r="G31" s="4">
-        <v>0.9324055666003978</v>
+        <v>0.9781312127236581</v>
       </c>
       <c r="H31" s="4">
-        <v>15.21753503980438</v>
+        <v>21.86447661944614</v>
       </c>
       <c r="I31" s="4">
-        <v>0.6739562624254474</v>
+        <v>0.8886679920477139</v>
       </c>
       <c r="J31" s="4">
-        <v>7.169467454234998</v>
+        <v>2.062034075316805</v>
       </c>
       <c r="K31" s="4">
-        <v>0.7654075546719682</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.8389662027833003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.5049701789264414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>147.5</v>
+        <v>156.57</v>
       </c>
       <c r="C32" s="3">
-        <v>1355</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.34838533</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.8986083499005965</v>
+        <v>1277</v>
       </c>
       <c r="F32" s="4">
-        <v>25.94651478912868</v>
+        <v>6.445041282447879</v>
       </c>
       <c r="G32" s="4">
-        <v>0.9284294234592445</v>
+        <v>0.6759443339960239</v>
       </c>
       <c r="H32" s="4">
-        <v>31.50745461633331</v>
+        <v>7.964420570597887</v>
       </c>
       <c r="I32" s="4">
-        <v>0.9284294234592445</v>
+        <v>0.562624254473161</v>
       </c>
       <c r="J32" s="4">
-        <v>3.683400601363208</v>
+        <v>-0.1211962166845461</v>
       </c>
       <c r="K32" s="4">
-        <v>0.5984095427435389</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0.838469184890656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0.4075546719681909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>78.19499999999999</v>
+        <v>243.28</v>
       </c>
       <c r="C33" s="3">
-        <v>2557</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.3099525</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.8687872763419483</v>
+        <v>822</v>
       </c>
       <c r="F33" s="4">
-        <v>9.688934599263366</v>
+        <v>-0.2337532540297657</v>
       </c>
       <c r="G33" s="4">
-        <v>0.7057654075546721</v>
+        <v>0.5129224652087475</v>
       </c>
       <c r="H33" s="4">
-        <v>23.28920207000588</v>
+        <v>3.691076567359016</v>
       </c>
       <c r="I33" s="4">
-        <v>0.8568588469184891</v>
+        <v>0.4353876739562624</v>
       </c>
       <c r="J33" s="4">
-        <v>12.56406097048135</v>
+        <v>9.103957054767612</v>
       </c>
       <c r="K33" s="4">
-        <v>0.9105367793240557</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0.8354870775347913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.827037773359841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>200.065</v>
+        <v>344.86</v>
       </c>
       <c r="C34" s="3">
-        <v>999</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.9258096</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.9940357852882704</v>
+        <v>579</v>
       </c>
       <c r="F34" s="4">
-        <v>19.4631880235955</v>
+        <v>-1.757688359738635</v>
       </c>
       <c r="G34" s="4">
-        <v>0.8727634194831014</v>
+        <v>0.4652087475149106</v>
       </c>
       <c r="H34" s="4">
-        <v>16.59479381737579</v>
+        <v>17.42312727188087</v>
       </c>
       <c r="I34" s="4">
-        <v>0.7037773359840955</v>
+        <v>0.8210735586481114</v>
       </c>
       <c r="J34" s="4">
-        <v>7.015247770661906</v>
+        <v>4.935482588897857</v>
       </c>
       <c r="K34" s="4">
-        <v>0.7574552683896622</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0.8320079522862824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>0.6779324055666004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>125.625</v>
+        <v>184.77</v>
       </c>
       <c r="C35" s="3">
-        <v>1592</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.61296666</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.9781312127236581</v>
+        <v>1082</v>
       </c>
       <c r="F35" s="4">
-        <v>28.24948033238788</v>
+        <v>-16.23067591376325</v>
       </c>
       <c r="G35" s="4">
-        <v>0.9463220675944335</v>
+        <v>0.1192842942345925</v>
       </c>
       <c r="H35" s="4">
-        <v>17.16563940473361</v>
+        <v>-4.36830502982457</v>
       </c>
       <c r="I35" s="4">
-        <v>0.7157057654075547</v>
+        <v>0.2286282306163022</v>
       </c>
       <c r="J35" s="4">
-        <v>5.310586835319626</v>
+        <v>-5.734396484554261</v>
       </c>
       <c r="K35" s="4">
-        <v>0.6779324055666004</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0.8295228628230616</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0.1332007952286282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>42.27</v>
+        <v>139.57</v>
       </c>
       <c r="C36" s="3">
-        <v>4731</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.31212604</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.8727634194831014</v>
+        <v>1432</v>
       </c>
       <c r="F36" s="4">
-        <v>1.917469015216853</v>
+        <v>36.59229487900974</v>
       </c>
       <c r="G36" s="4">
-        <v>0.5168986083499006</v>
+        <v>0.9741550695825051</v>
       </c>
       <c r="H36" s="4">
-        <v>31.89620448194609</v>
+        <v>31.88132373561333</v>
       </c>
       <c r="I36" s="4">
-        <v>0.9343936381709742</v>
+        <v>0.9662027833001988</v>
       </c>
       <c r="J36" s="4">
-        <v>23.76850269835443</v>
+        <v>8.733255422689021</v>
       </c>
       <c r="K36" s="4">
-        <v>0.992047713717694</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0.8290258449304175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>0.8071570576540756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>203.48</v>
+        <v>179.6</v>
       </c>
       <c r="C37" s="3">
-        <v>982</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.27921784</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.8568588469184891</v>
+        <v>1113</v>
       </c>
       <c r="F37" s="4">
-        <v>18.72709807803033</v>
+        <v>38.48407951465545</v>
       </c>
       <c r="G37" s="4">
-        <v>0.8628230616302187</v>
+        <v>0.9801192842942347</v>
       </c>
       <c r="H37" s="4">
-        <v>15.65663039737562</v>
+        <v>30.07894298272564</v>
       </c>
       <c r="I37" s="4">
-        <v>0.679920477137177</v>
+        <v>0.9562624254473161</v>
       </c>
       <c r="J37" s="4">
-        <v>11.72853128872927</v>
+        <v>13.0270692272753</v>
       </c>
       <c r="K37" s="4">
-        <v>0.89662027833002</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.8240556660039762</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>0.9204771371769384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>233.07</v>
+        <v>304.65</v>
       </c>
       <c r="C38" s="3">
-        <v>858</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.401842</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0.9224652087475149</v>
+        <v>656</v>
       </c>
       <c r="F38" s="4">
-        <v>12.69765005349172</v>
+        <v>11.82689207757243</v>
       </c>
       <c r="G38" s="4">
-        <v>0.7852882703777336</v>
+        <v>0.8051689860834991</v>
       </c>
       <c r="H38" s="4">
-        <v>18.27962634590764</v>
+        <v>3.506271122560229</v>
       </c>
       <c r="I38" s="4">
-        <v>0.7475149105367794</v>
+        <v>0.4294234592445328</v>
       </c>
       <c r="J38" s="4">
-        <v>9.29164481321342</v>
+        <v>-5.208631254541221</v>
       </c>
       <c r="K38" s="4">
-        <v>0.8290258449304175</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0.8210735586481114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0.1570576540755467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2">
-        <v>77.89</v>
+        <v>315.06</v>
       </c>
       <c r="C39" s="3">
-        <v>2567</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.29648328</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0.8628230616302187</v>
+        <v>634</v>
       </c>
       <c r="F39" s="4">
-        <v>13.32933115789048</v>
+        <v>-0.8403403315430802</v>
       </c>
       <c r="G39" s="4">
-        <v>0.8051689860834991</v>
+        <v>0.4990059642147118</v>
       </c>
       <c r="H39" s="4">
-        <v>17.31240864052505</v>
+        <v>-5.253661710171936</v>
       </c>
       <c r="I39" s="4">
-        <v>0.7216699801192843</v>
+        <v>0.1988071570576541</v>
       </c>
       <c r="J39" s="4">
-        <v>11.41466930270546</v>
+        <v>-6.546438170607318</v>
       </c>
       <c r="K39" s="4">
-        <v>0.8906560636182903</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0.820079522862823</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.1093439363817097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2">
-        <v>149.44</v>
+        <v>72.64</v>
       </c>
       <c r="C40" s="3">
-        <v>1338</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.22278976</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.7972166998011929</v>
+        <v>2753</v>
       </c>
       <c r="F40" s="4">
-        <v>11.95335903515516</v>
+        <v>7.630762615038646</v>
       </c>
       <c r="G40" s="4">
-        <v>0.7574552683896622</v>
+        <v>0.7057654075546721</v>
       </c>
       <c r="H40" s="4">
-        <v>19.35796512444522</v>
+        <v>3.313898324506341</v>
       </c>
       <c r="I40" s="4">
-        <v>0.7753479125248509</v>
+        <v>0.4234592445328032</v>
       </c>
       <c r="J40" s="4">
-        <v>14.42572393370162</v>
+        <v>2.88951977282991</v>
       </c>
       <c r="K40" s="4">
-        <v>0.9324055666003978</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0.8156063618290259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>0.562624254473161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2">
-        <v>157.45</v>
+        <v>41.87</v>
       </c>
       <c r="C41" s="3">
-        <v>1270</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.35063922</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.900596421471173</v>
+        <v>4776</v>
       </c>
       <c r="F41" s="4">
-        <v>12.58135536319408</v>
+        <v>-0.3569764974888089</v>
       </c>
       <c r="G41" s="4">
-        <v>0.7773359840954275</v>
+        <v>0.5089463220675945</v>
       </c>
       <c r="H41" s="4">
-        <v>18.20110232441191</v>
+        <v>26.57193656071157</v>
       </c>
       <c r="I41" s="4">
-        <v>0.7455268389662028</v>
+        <v>0.9264413518886679</v>
       </c>
       <c r="J41" s="4">
-        <v>8.85646958839142</v>
+        <v>24.42792580465169</v>
       </c>
       <c r="K41" s="4">
-        <v>0.8131212723658052</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0.8091451292246521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>0.9940357852882704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>280.3777</v>
+        <v>284.43</v>
       </c>
       <c r="C42" s="3">
-        <v>713</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.05910422400165338</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.5387673956262425</v>
+        <v>703</v>
       </c>
       <c r="F42" s="4">
-        <v>12.67824942207028</v>
+        <v>0.4946450561857481</v>
       </c>
       <c r="G42" s="4">
-        <v>0.7833001988071571</v>
+        <v>0.5248508946322068</v>
       </c>
       <c r="H42" s="4">
-        <v>33.93201308325465</v>
+        <v>-3.772242507277582</v>
       </c>
       <c r="I42" s="4">
-        <v>0.9483101391650101</v>
+        <v>0.2405566600397614</v>
       </c>
       <c r="J42" s="4">
-        <v>15.08646031585275</v>
+        <v>-1.184687223976486</v>
       </c>
       <c r="K42" s="4">
-        <v>0.9423459244532804</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0.8031809145129225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>0.3320079522862823</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="2">
-        <v>115.745</v>
+        <v>87.3</v>
       </c>
       <c r="C43" s="3">
-        <v>1727</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0.2384491</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.8151093439363818</v>
+        <v>2290</v>
       </c>
       <c r="F43" s="4">
-        <v>10.04740961214327</v>
+        <v>6.723716130572699</v>
       </c>
       <c r="G43" s="4">
-        <v>0.7137176938369783</v>
+        <v>0.6838966202783301</v>
       </c>
       <c r="H43" s="4">
-        <v>20.21443134607354</v>
+        <v>15.85932955491823</v>
       </c>
       <c r="I43" s="4">
-        <v>0.7952286282306162</v>
+        <v>0.779324055666004</v>
       </c>
       <c r="J43" s="4">
-        <v>11.27187702548073</v>
+        <v>4.301082717770911</v>
       </c>
       <c r="K43" s="4">
-        <v>0.8866799204771373</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0.8026838966202784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>0.6322067594433399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="2">
-        <v>214.5675</v>
+        <v>106.8</v>
       </c>
       <c r="C44" s="3">
-        <v>932</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0.18875921</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0.7594433399602386</v>
+        <v>1872</v>
       </c>
       <c r="F44" s="4">
-        <v>15.80322134958774</v>
+        <v>-7.090034025972199</v>
       </c>
       <c r="G44" s="4">
-        <v>0.8389662027833001</v>
+        <v>0.3001988071570577</v>
       </c>
       <c r="H44" s="4">
-        <v>31.70690678674919</v>
+        <v>13.65329537553313</v>
       </c>
       <c r="I44" s="4">
-        <v>0.9304174950298212</v>
+        <v>0.727634194831014</v>
       </c>
       <c r="J44" s="4">
-        <v>5.350570438375342</v>
+        <v>1.830669192048699</v>
       </c>
       <c r="K44" s="4">
-        <v>0.679920477137177</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0.8021868787276343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>0.4910536779324056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>78.3</v>
+        <v>120.75</v>
       </c>
       <c r="C45" s="3">
-        <v>2554</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0.19748735</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.7733598409542743</v>
+        <v>1656</v>
       </c>
       <c r="F45" s="4">
-        <v>13.82225033815272</v>
+        <v>-27.80700468391745</v>
       </c>
       <c r="G45" s="4">
-        <v>0.8111332007952287</v>
+        <v>0.04373757455268389</v>
       </c>
       <c r="H45" s="4">
-        <v>22.96202094504457</v>
+        <v>-1.307722512525832</v>
       </c>
       <c r="I45" s="4">
-        <v>0.8429423459244534</v>
+        <v>0.3081510934393639</v>
       </c>
       <c r="J45" s="4">
-        <v>7.187842188106981</v>
+        <v>3.231596768272781</v>
       </c>
       <c r="K45" s="4">
-        <v>0.7693836978131213</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0.7992047713717694</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>0.5785288270377734</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>112.53</v>
+        <v>117.27</v>
       </c>
       <c r="C46" s="3">
-        <v>1777</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.93562615</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0.996023856858847</v>
+        <v>1705</v>
       </c>
       <c r="F46" s="4">
-        <v>36.87626753765424</v>
+        <v>-0.3145212074989088</v>
       </c>
       <c r="G46" s="4">
-        <v>0.9741550695825051</v>
+        <v>0.5109343936381709</v>
       </c>
       <c r="H46" s="4">
-        <v>13.38422127398402</v>
+        <v>-0.5005972885030993</v>
       </c>
       <c r="I46" s="4">
-        <v>0.6262425447316103</v>
+        <v>0.3240556660039761</v>
       </c>
       <c r="J46" s="4">
-        <v>3.647685069692104</v>
+        <v>-0.2297126683323594</v>
       </c>
       <c r="K46" s="4">
-        <v>0.5964214711729623</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0.7982107355864811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>0.4015904572564613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>467.93</v>
+        <v>91.58</v>
       </c>
       <c r="C47" s="3">
-        <v>427</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.43771446</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.9443339960238569</v>
+        <v>2183</v>
       </c>
       <c r="F47" s="4">
-        <v>3.865458487632034</v>
+        <v>27.9407648622371</v>
       </c>
       <c r="G47" s="4">
-        <v>0.554671968190855</v>
+        <v>0.9502982107355865</v>
       </c>
       <c r="H47" s="4">
-        <v>43.11785192687564</v>
+        <v>21.21773412545734</v>
       </c>
       <c r="I47" s="4">
-        <v>0.9821073558648112</v>
+        <v>0.882703777335984</v>
       </c>
       <c r="J47" s="4">
-        <v>5.955208546110337</v>
+        <v>10.73761210459301</v>
       </c>
       <c r="K47" s="4">
-        <v>0.7097415506958251</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0.797713717693837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>0.878727634194831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="2">
-        <v>56.7452</v>
+        <v>184.85</v>
       </c>
       <c r="C48" s="3">
-        <v>3524</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.15376544</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0.7137176938369783</v>
+        <v>1081</v>
       </c>
       <c r="F48" s="4">
-        <v>6.065796468859521</v>
+        <v>3.389458607834086</v>
       </c>
       <c r="G48" s="4">
-        <v>0.6083499005964215</v>
+        <v>0.588469184890656</v>
       </c>
       <c r="H48" s="4">
-        <v>30.86992691898801</v>
+        <v>2.489468550659543</v>
       </c>
       <c r="I48" s="4">
-        <v>0.9165009940357853</v>
+        <v>0.3956262425447317</v>
       </c>
       <c r="J48" s="4">
-        <v>15.26549185147957</v>
+        <v>-3.929108369994025</v>
       </c>
       <c r="K48" s="4">
-        <v>0.9483101391650101</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0.7967196819085488</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>0.1968190854870775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>205.92</v>
+        <v>881.65</v>
       </c>
       <c r="C49" s="3">
-        <v>971</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.32985616</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0.8866799204771373</v>
+        <v>226</v>
       </c>
       <c r="F49" s="4">
-        <v>12.26331420014974</v>
+        <v>46.62398841052696</v>
       </c>
       <c r="G49" s="4">
-        <v>0.7713717693836979</v>
+        <v>0.992047713717694</v>
       </c>
       <c r="H49" s="4">
-        <v>17.54006218264264</v>
+        <v>40.15356688325127</v>
       </c>
       <c r="I49" s="4">
-        <v>0.7256461232604374</v>
+        <v>0.9880715705765408</v>
       </c>
       <c r="J49" s="4">
-        <v>8.510298536589131</v>
+        <v>3.968163256375295</v>
       </c>
       <c r="K49" s="4">
-        <v>0.8011928429423461</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0.7962226640159047</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>0.6163021868787277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>908.9</v>
+        <v>185.02</v>
       </c>
       <c r="C50" s="3">
-        <v>220</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.4030707</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.9244532803180916</v>
+        <v>1080</v>
       </c>
       <c r="F50" s="4">
-        <v>26.17478381598571</v>
+        <v>3.629445071134898</v>
       </c>
       <c r="G50" s="4">
-        <v>0.9363817097415508</v>
+        <v>0.5984095427435389</v>
       </c>
       <c r="H50" s="4">
-        <v>19.59368361335454</v>
+        <v>7.669930292976926</v>
       </c>
       <c r="I50" s="4">
-        <v>0.7872763419483101</v>
+        <v>0.5487077534791253</v>
       </c>
       <c r="J50" s="4">
-        <v>2.51754008594544</v>
+        <v>9.046977231785657</v>
       </c>
       <c r="K50" s="4">
-        <v>0.5347912524850895</v>
-      </c>
-      <c r="L50" s="3">
-        <v>0.7957256461232605</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>0.8250497017892644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>156.145</v>
+        <v>141.97</v>
       </c>
       <c r="C51" s="3">
-        <v>1280</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.14790714</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.6998011928429423</v>
+        <v>1408</v>
       </c>
       <c r="F51" s="4">
-        <v>11.62111393587527</v>
+        <v>-9.232147626951541</v>
       </c>
       <c r="G51" s="4">
-        <v>0.7475149105367794</v>
+        <v>0.2524850894632207</v>
       </c>
       <c r="H51" s="4">
-        <v>18.48045517825237</v>
+        <v>-3.729572085490606</v>
       </c>
       <c r="I51" s="4">
-        <v>0.7514910536779325</v>
+        <v>0.242544731610338</v>
       </c>
       <c r="J51" s="4">
-        <v>20.08383122227795</v>
+        <v>-0.3159647198621502</v>
       </c>
       <c r="K51" s="4">
-        <v>0.9840954274353878</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0.7957256461232605</v>
+        <v>0.3956262425447317</v>
       </c>
     </row>
   </sheetData>
